--- a/Sort Benchmark.xlsx
+++ b/Sort Benchmark.xlsx
@@ -117,7 +117,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>JavaSortParallel, JavaSort, MergeSortParallel and MergeSort</a:t>
+              <a:t>No warmup</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -248,11 +248,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1839174056"/>
-        <c:axId val="514589154"/>
+        <c:axId val="815939222"/>
+        <c:axId val="162439628"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1839174056"/>
+        <c:axId val="815939222"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -304,10 +304,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514589154"/>
+        <c:crossAx val="162439628"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514589154"/>
+        <c:axId val="162439628"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -382,7 +382,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1839174056"/>
+        <c:crossAx val="815939222"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -432,7 +432,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>JavaSort, JavaSortParallel, MergeSort and MergeSortParallel</a:t>
+              <a:t>Warmup with All Methods</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -563,11 +563,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1540777145"/>
-        <c:axId val="1771017551"/>
+        <c:axId val="1693075894"/>
+        <c:axId val="1924784940"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1540777145"/>
+        <c:axId val="1693075894"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,10 +619,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1771017551"/>
+        <c:crossAx val="1924784940"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1771017551"/>
+        <c:axId val="1924784940"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -697,7 +697,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1540777145"/>
+        <c:crossAx val="1693075894"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -747,7 +747,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>JavaSort, JavaSortParallel, MergeSort and MergeSortParallel</a:t>
+              <a:t>Warmup with All Methods and Sizes</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -878,11 +878,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="864324007"/>
-        <c:axId val="1132243244"/>
+        <c:axId val="1498274863"/>
+        <c:axId val="752281137"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="864324007"/>
+        <c:axId val="1498274863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,10 +934,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1132243244"/>
+        <c:crossAx val="752281137"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1132243244"/>
+        <c:axId val="752281137"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +1012,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="864324007"/>
+        <c:crossAx val="1498274863"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1062,7 +1062,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>JavaSort, JavaSortParallel, MergeSort and MergeSortParallel</a:t>
+              <a:t>Warmup before each Method and Size</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1193,11 +1193,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="136128420"/>
-        <c:axId val="2108364242"/>
+        <c:axId val="1438459511"/>
+        <c:axId val="2057612454"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="136128420"/>
+        <c:axId val="1438459511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,10 +1249,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108364242"/>
+        <c:crossAx val="2057612454"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108364242"/>
+        <c:axId val="2057612454"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,7 +1327,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136128420"/>
+        <c:crossAx val="1438459511"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1377,7 +1377,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>JavaSort, JavaSortParallel, MergeSort and MergeSortParallel</a:t>
+              <a:t>Warmup before each Method and Size and then Average</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1508,11 +1508,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1457881897"/>
-        <c:axId val="964114498"/>
+        <c:axId val="49201371"/>
+        <c:axId val="735009745"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1457881897"/>
+        <c:axId val="49201371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,10 +1564,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="964114498"/>
+        <c:crossAx val="735009745"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="964114498"/>
+        <c:axId val="735009745"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,7 +1642,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1457881897"/>
+        <c:crossAx val="49201371"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
